--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5288616666666667</v>
+        <v>0.06674100000000001</v>
       </c>
       <c r="N2">
-        <v>1.586585</v>
+        <v>0.200223</v>
       </c>
       <c r="O2">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="P2">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="Q2">
-        <v>103.3582855521883</v>
+        <v>13.184242079417</v>
       </c>
       <c r="R2">
-        <v>930.224569969695</v>
+        <v>118.658178714753</v>
       </c>
       <c r="S2">
-        <v>0.0007734772002660636</v>
+        <v>0.0003799952710395794</v>
       </c>
       <c r="T2">
-        <v>0.0007734772002660639</v>
+        <v>0.0003799952710395793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.377498</v>
       </c>
       <c r="O3">
-        <v>0.005318810911660981</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="P3">
-        <v>0.005318810911660981</v>
+        <v>0.01891584399031519</v>
       </c>
       <c r="Q3">
-        <v>220.0275451589073</v>
+        <v>222.4007794046975</v>
       </c>
       <c r="R3">
-        <v>1980.247906430166</v>
+        <v>2001.607014642278</v>
       </c>
       <c r="S3">
-        <v>0.00164656649151746</v>
+        <v>0.006410019168355471</v>
       </c>
       <c r="T3">
-        <v>0.00164656649151746</v>
+        <v>0.006410019168355469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.474785</v>
+        <v>31.745291</v>
       </c>
       <c r="N4">
-        <v>370.424355</v>
+        <v>95.235873</v>
       </c>
       <c r="O4">
-        <v>0.5833362747569298</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="P4">
-        <v>0.58333627475693</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="Q4">
-        <v>24131.34263816637</v>
+        <v>6271.071776352433</v>
       </c>
       <c r="R4">
-        <v>217182.0837434973</v>
+        <v>56439.6459871719</v>
       </c>
       <c r="S4">
-        <v>0.1805858450796916</v>
+        <v>0.1807443768864015</v>
       </c>
       <c r="T4">
-        <v>0.1805858450796916</v>
+        <v>0.1807443768864014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1021626666666667</v>
+        <v>0.07967600000000001</v>
       </c>
       <c r="N5">
-        <v>0.306488</v>
+        <v>0.239028</v>
       </c>
       <c r="O5">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="P5">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="Q5">
-        <v>19.96620050127733</v>
+        <v>15.73946557467867</v>
       </c>
       <c r="R5">
-        <v>179.695804511496</v>
+        <v>141.655190172108</v>
       </c>
       <c r="S5">
-        <v>0.0001494161864351077</v>
+        <v>0.0004536417376927156</v>
       </c>
       <c r="T5">
-        <v>0.0001494161864351077</v>
+        <v>0.0004536417376927155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H6">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.43835066666666</v>
+        <v>26.500431</v>
       </c>
       <c r="N6">
-        <v>259.315052</v>
+        <v>79.501293</v>
       </c>
       <c r="O6">
-        <v>0.4083637438528563</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="P6">
-        <v>0.4083637438528564</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="Q6">
-        <v>16893.11268705841</v>
+        <v>5234.984455025947</v>
       </c>
       <c r="R6">
-        <v>152038.0141835257</v>
+        <v>47114.86009523352</v>
       </c>
       <c r="S6">
-        <v>0.1264188684550835</v>
+        <v>0.1508823430951091</v>
       </c>
       <c r="T6">
-        <v>0.1264188684550835</v>
+        <v>0.150882343095109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.5288616666666667</v>
+        <v>0.06674100000000001</v>
       </c>
       <c r="N7">
-        <v>1.586585</v>
+        <v>0.200223</v>
       </c>
       <c r="O7">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="P7">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="Q7">
-        <v>42.21757389071445</v>
+        <v>5.327750670226001</v>
       </c>
       <c r="R7">
-        <v>379.95816501643</v>
+        <v>47.949756032034</v>
       </c>
       <c r="S7">
-        <v>0.0003159333640313475</v>
+        <v>0.0001535560442359045</v>
       </c>
       <c r="T7">
-        <v>0.0003159333640313476</v>
+        <v>0.0001535560442359044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.377498</v>
       </c>
       <c r="O8">
-        <v>0.005318810911660981</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="P8">
-        <v>0.005318810911660981</v>
+        <v>0.01891584399031519</v>
       </c>
       <c r="Q8">
         <v>89.87212874238712</v>
@@ -948,10 +948,10 @@
         <v>808.849158681484</v>
       </c>
       <c r="S8">
-        <v>0.0006725541368090256</v>
+        <v>0.002590287990364138</v>
       </c>
       <c r="T8">
-        <v>0.0006725541368090258</v>
+        <v>0.002590287990364138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>123.474785</v>
+        <v>31.745291</v>
       </c>
       <c r="N9">
-        <v>370.424355</v>
+        <v>95.235873</v>
       </c>
       <c r="O9">
-        <v>0.5833362747569298</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="P9">
-        <v>0.58333627475693</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="Q9">
-        <v>9856.652860157345</v>
+        <v>2534.139365633859</v>
       </c>
       <c r="R9">
-        <v>88709.87574141609</v>
+        <v>22807.25429070473</v>
       </c>
       <c r="S9">
-        <v>0.07376182971242769</v>
+        <v>0.07303878139490957</v>
       </c>
       <c r="T9">
-        <v>0.07376182971242772</v>
+        <v>0.07303878139490956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1021626666666667</v>
+        <v>0.07967600000000001</v>
       </c>
       <c r="N10">
-        <v>0.306488</v>
+        <v>0.239028</v>
       </c>
       <c r="O10">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="P10">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="Q10">
-        <v>8.155365005100444</v>
+        <v>6.360316183469334</v>
       </c>
       <c r="R10">
-        <v>73.39828504590399</v>
+        <v>57.242845651224</v>
       </c>
       <c r="S10">
-        <v>6.103031660783356E-05</v>
+        <v>0.0001833165727295055</v>
       </c>
       <c r="T10">
-        <v>6.103031660783358E-05</v>
+        <v>0.0001833165727295054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.43835066666666</v>
+        <v>26.500431</v>
       </c>
       <c r="N11">
-        <v>259.315052</v>
+        <v>79.501293</v>
       </c>
       <c r="O11">
-        <v>0.4083637438528563</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="P11">
-        <v>0.4083637438528564</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="Q11">
-        <v>6900.136058757935</v>
+        <v>2115.456601212566</v>
       </c>
       <c r="R11">
-        <v>62101.22452882141</v>
+        <v>19039.10941091309</v>
       </c>
       <c r="S11">
-        <v>0.05163686579812855</v>
+        <v>0.06097153705977636</v>
       </c>
       <c r="T11">
-        <v>0.05163686579812857</v>
+        <v>0.06097153705977634</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5288616666666667</v>
+        <v>0.06674100000000001</v>
       </c>
       <c r="N12">
-        <v>1.586585</v>
+        <v>0.200223</v>
       </c>
       <c r="O12">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="P12">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="Q12">
-        <v>85.94618612635612</v>
+        <v>9.932690414997001</v>
       </c>
       <c r="R12">
-        <v>773.5156751372051</v>
+        <v>89.39421373497301</v>
       </c>
       <c r="S12">
-        <v>0.0006431745172958942</v>
+        <v>0.0002862792842898042</v>
       </c>
       <c r="T12">
-        <v>0.0006431745172958944</v>
+        <v>0.0002862792842898041</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.377498</v>
       </c>
       <c r="O13">
-        <v>0.005318810911660981</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="P13">
-        <v>0.005318810911660981</v>
+        <v>0.01891584399031519</v>
       </c>
       <c r="Q13">
-        <v>182.9609329152838</v>
+        <v>167.551390256222</v>
       </c>
       <c r="R13">
-        <v>1646.648396237554</v>
+        <v>1507.962512305998</v>
       </c>
       <c r="S13">
-        <v>0.001369180123231877</v>
+        <v>0.004829154043892285</v>
       </c>
       <c r="T13">
-        <v>0.001369180123231878</v>
+        <v>0.004829154043892283</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H14">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.474785</v>
+        <v>31.745291</v>
       </c>
       <c r="N14">
-        <v>370.424355</v>
+        <v>95.235873</v>
       </c>
       <c r="O14">
-        <v>0.5833362747569298</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="P14">
-        <v>0.58333627475693</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="Q14">
-        <v>20066.09199038527</v>
+        <v>4724.474425570347</v>
       </c>
       <c r="R14">
-        <v>180594.8279134675</v>
+        <v>42520.26983013313</v>
       </c>
       <c r="S14">
-        <v>0.1501637200161151</v>
+        <v>0.1361684599729036</v>
       </c>
       <c r="T14">
-        <v>0.1501637200161152</v>
+        <v>0.1361684599729036</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H15">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1021626666666667</v>
+        <v>0.07967600000000001</v>
       </c>
       <c r="N15">
-        <v>0.306488</v>
+        <v>0.239028</v>
       </c>
       <c r="O15">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="P15">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="Q15">
-        <v>16.60262431164711</v>
+        <v>11.857734248892</v>
       </c>
       <c r="R15">
-        <v>149.423618804824</v>
+        <v>106.719608240028</v>
       </c>
       <c r="S15">
-        <v>0.0001242450114283092</v>
+        <v>0.0003417627583505556</v>
       </c>
       <c r="T15">
-        <v>0.0001242450114283093</v>
+        <v>0.0003417627583505556</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H16">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.43835066666666</v>
+        <v>26.500431</v>
       </c>
       <c r="N16">
-        <v>259.315052</v>
+        <v>79.501293</v>
       </c>
       <c r="O16">
-        <v>0.4083637438528563</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="P16">
-        <v>0.4083637438528564</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="Q16">
-        <v>14047.23965281262</v>
+        <v>3943.911193823727</v>
       </c>
       <c r="R16">
-        <v>126425.1568753136</v>
+        <v>35495.20074441355</v>
       </c>
       <c r="S16">
-        <v>0.1051219023233295</v>
+        <v>0.1136711229986266</v>
       </c>
       <c r="T16">
-        <v>0.1051219023233295</v>
+        <v>0.1136711229986266</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H17">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.5288616666666667</v>
+        <v>0.06674100000000001</v>
       </c>
       <c r="N17">
-        <v>1.586585</v>
+        <v>0.200223</v>
       </c>
       <c r="O17">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="P17">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="Q17">
-        <v>17.84304094461778</v>
+        <v>2.364423596073</v>
       </c>
       <c r="R17">
-        <v>160.58736850156</v>
+        <v>21.279812364657</v>
       </c>
       <c r="S17">
-        <v>0.0001335276149400439</v>
+        <v>6.814724576734006E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001335276149400439</v>
+        <v>6.814724576734004E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H18">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.377498</v>
       </c>
       <c r="O18">
-        <v>0.005318810911660981</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="P18">
-        <v>0.005318810911660981</v>
+        <v>0.01891584399031519</v>
       </c>
       <c r="Q18">
-        <v>37.98399398983646</v>
+        <v>39.884708384598</v>
       </c>
       <c r="R18">
-        <v>341.8559459085281</v>
+        <v>358.962375461382</v>
       </c>
       <c r="S18">
-        <v>0.0002842515543792285</v>
+        <v>0.001149554178514454</v>
       </c>
       <c r="T18">
-        <v>0.0002842515543792285</v>
+        <v>0.001149554178514454</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H19">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>123.474785</v>
+        <v>31.745291</v>
       </c>
       <c r="N19">
-        <v>370.424355</v>
+        <v>95.235873</v>
       </c>
       <c r="O19">
-        <v>0.5833362747569298</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="P19">
-        <v>0.58333627475693</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="Q19">
-        <v>4165.863747072255</v>
+        <v>1124.635757699223</v>
       </c>
       <c r="R19">
-        <v>37492.77372365029</v>
+        <v>10121.72181929301</v>
       </c>
       <c r="S19">
-        <v>0.03117505878276557</v>
+        <v>0.03241417041597711</v>
       </c>
       <c r="T19">
-        <v>0.03117505878276558</v>
+        <v>0.03241417041597711</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H20">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.1021626666666667</v>
+        <v>0.07967600000000001</v>
       </c>
       <c r="N20">
-        <v>0.306488</v>
+        <v>0.239028</v>
       </c>
       <c r="O20">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="P20">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="Q20">
-        <v>3.446823166129779</v>
+        <v>2.822669939628001</v>
       </c>
       <c r="R20">
-        <v>31.021408495168</v>
+        <v>25.404029456652</v>
       </c>
       <c r="S20">
-        <v>2.57941501071447E-05</v>
+        <v>8.135478871695939E-05</v>
       </c>
       <c r="T20">
-        <v>2.57941501071447E-05</v>
+        <v>8.135478871695936E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H21">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.43835066666666</v>
+        <v>26.500431</v>
       </c>
       <c r="N21">
-        <v>259.315052</v>
+        <v>79.501293</v>
       </c>
       <c r="O21">
-        <v>0.4083637438528563</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="P21">
-        <v>0.4083637438528564</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="Q21">
-        <v>2916.307093784253</v>
+        <v>938.8268734736431</v>
       </c>
       <c r="R21">
-        <v>26246.76384405827</v>
+        <v>8449.441861262787</v>
       </c>
       <c r="S21">
-        <v>0.02182405632954645</v>
+        <v>0.02705880020223607</v>
       </c>
       <c r="T21">
-        <v>0.02182405632954645</v>
+        <v>0.02705880020223606</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H22">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I22">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J22">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.5288616666666667</v>
+        <v>0.06674100000000001</v>
       </c>
       <c r="N22">
-        <v>1.586585</v>
+        <v>0.200223</v>
       </c>
       <c r="O22">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="P22">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="Q22">
-        <v>84.5073564379489</v>
+        <v>8.097339500162001</v>
       </c>
       <c r="R22">
-        <v>760.5662079415401</v>
+        <v>72.876055501458</v>
       </c>
       <c r="S22">
-        <v>0.0006324070983792272</v>
+        <v>0.0002333809330509208</v>
       </c>
       <c r="T22">
-        <v>0.0006324070983792274</v>
+        <v>0.0002333809330509208</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H23">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I23">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J23">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.377498</v>
       </c>
       <c r="O23">
-        <v>0.005318810911660981</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="P23">
-        <v>0.005318810911660981</v>
+        <v>0.01891584399031519</v>
       </c>
       <c r="Q23">
-        <v>179.8979741737502</v>
+        <v>136.5914403795676</v>
       </c>
       <c r="R23">
-        <v>1619.081767563752</v>
+        <v>1229.322963416108</v>
       </c>
       <c r="S23">
-        <v>0.001346258605723389</v>
+        <v>0.003936828609188849</v>
       </c>
       <c r="T23">
-        <v>0.001346258605723389</v>
+        <v>0.003936828609188849</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H24">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I24">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J24">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>123.474785</v>
+        <v>31.745291</v>
       </c>
       <c r="N24">
-        <v>370.424355</v>
+        <v>95.235873</v>
       </c>
       <c r="O24">
-        <v>0.5833362747569298</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="P24">
-        <v>0.58333627475693</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="Q24">
-        <v>19730.16447355945</v>
+        <v>3851.491568277928</v>
       </c>
       <c r="R24">
-        <v>177571.480262035</v>
+        <v>34663.42411450136</v>
       </c>
       <c r="S24">
-        <v>0.1476498211659298</v>
+        <v>0.1110074112397627</v>
       </c>
       <c r="T24">
-        <v>0.1476498211659299</v>
+        <v>0.1110074112397626</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H25">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I25">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J25">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1021626666666667</v>
+        <v>0.07967600000000001</v>
       </c>
       <c r="N25">
-        <v>0.306488</v>
+        <v>0.239028</v>
       </c>
       <c r="O25">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="P25">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="Q25">
-        <v>16.32467889205689</v>
+        <v>9.666675986498667</v>
       </c>
       <c r="R25">
-        <v>146.922110028512</v>
+        <v>87.00008387848801</v>
       </c>
       <c r="S25">
-        <v>0.0001221650190617285</v>
+        <v>0.0002786122356836902</v>
       </c>
       <c r="T25">
-        <v>0.0001221650190617286</v>
+        <v>0.0002786122356836901</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H26">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I26">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J26">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.43835066666666</v>
+        <v>26.500431</v>
       </c>
       <c r="N26">
-        <v>259.315052</v>
+        <v>79.501293</v>
       </c>
       <c r="O26">
-        <v>0.4083637438528563</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="P26">
-        <v>0.4083637438528564</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="Q26">
-        <v>13812.07406416249</v>
+        <v>3215.159897328742</v>
       </c>
       <c r="R26">
-        <v>124308.6665774624</v>
+        <v>28936.43907595868</v>
       </c>
       <c r="S26">
-        <v>0.1033620509467683</v>
+        <v>0.09266710587242545</v>
       </c>
       <c r="T26">
-        <v>0.1033620509467683</v>
+        <v>0.09266710587242544</v>
       </c>
     </row>
   </sheetData>
